--- a/data/filtered_sephora.xlsx
+++ b/data/filtered_sephora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fifi/Desktop/Skin_Care_Recommendation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1A3064-58C1-A54A-BD6D-5903ACBEAE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E26216-010E-A447-A17A-65B7BBA36B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21300" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="500" windowWidth="21300" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -7790,9 +7790,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L533"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429:XFD429"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="78.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -22120,7 +22125,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>229</v>
       </c>
